--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kmax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89ED2F0-17E7-4C9A-AB67-92EADA81E940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322EFEC9-1B05-447D-B0D2-4FFC3BC90A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="3936" windowWidth="21564" windowHeight="8880" activeTab="1" xr2:uid="{2BE4E0E0-2F83-4F3E-8217-3B5BBFE1BEB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BE4E0E0-2F83-4F3E-8217-3B5BBFE1BEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="完成情况" sheetId="2" r:id="rId1"/>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97293C1-7C6D-460D-9B51-E0435405AD7C}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83AF8B0-590D-4577-BF03-39C8D354C3A1}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
